--- a/biology/Zoologie/Entelle/Entelle.xlsx
+++ b/biology/Zoologie/Entelle/Entelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme entelle est le nom vernaculaire donné à des singes de la sous-famille des Colobinae, dont certains sont aussi appelés des langurs. Plusieurs sont sur la liste des espèces menacées d'extinction selon l'UICN.
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie et histoire du terme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entelle est un nom masculin, on dira donc un entelle gris[1].
-Entelle n'est pas un mot répertorié dans les dictionnaires anciens de langue française[2].
-Le dictionnaire Larousse définit ces singes par leur habitat : « l'Inde et du Sud-Est asiatique », leur comportement « arboricole et mangeur de feuilles » et une particularité anatomique : un « estomac énorme et compartimenté »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entelle est un nom masculin, on dira donc un entelle gris.
+Entelle n'est pas un mot répertorié dans les dictionnaires anciens de langue française.
+Le dictionnaire Larousse définit ces singes par leur habitat : « l'Inde et du Sud-Est asiatique », leur comportement « arboricole et mangeur de feuilles » et une particularité anatomique : un « estomac énorme et compartimenté ».
 Une confusion est possible avec d'autres singes dont le nom est approchant, les Atèles.
 </t>
         </is>
@@ -545,17 +559,19 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[3] en français.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français.
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide. En gras, les espèces les plus connues des francophones.
 Entelle - sans précision, l'espèce Semnopithecus entellus
-Entelle doré - Trachypithecus geei[4],[5]
-Entelle d'Hanuman - Semnopithecus entellus[4]
-Entelle des Indes - voir Entelle d'Hanuman[4]
-Entelle de Pagi ou Entelle de Pagai - Nasalis concolor[6]
-Entelle aux pieds noirs - Semnopithecus hypoleucos[6]
-Entelle pileux - Trachypithecus pileatus[4],[6]
+Entelle doré - Trachypithecus geei,
+Entelle d'Hanuman - Semnopithecus entellus
+Entelle des Indes - voir Entelle d'Hanuman
+Entelle de Pagi ou Entelle de Pagai - Nasalis concolor
+Entelle aux pieds noirs - Semnopithecus hypoleucos
+Entelle pileux - Trachypithecus pileatus,
 etc.</t>
         </is>
       </c>
@@ -584,11 +600,48 @@
           <t>Physiologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques générales des entelles sont celles des Colobinae, avec des nuances pour chaque espèce : voir les articles détaillés pour plus d'informations sur leur comportement ou leur physiologie respective.
-Caractéristiques communes
-Les entelles sont des singes arboricoles qui se nourrissent de feuillage. On les trouve en Inde et dans le Sud-Est asiatique[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Entelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Entelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Physiologie, comportement et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les entelles sont des singes arboricoles qui se nourrissent de feuillage. On les trouve en Inde et dans le Sud-Est asiatique.
 </t>
         </is>
       </c>
